--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0CBEE5-1F3F-4878-A18E-9EAF253C9052}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B529C-62D1-4DB9-A054-435256B1545A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>Part Number</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Omni</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,25 +674,25 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>86</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G11" si="0">F4*0.00220462</f>
+        <f t="shared" ref="G4:G12" si="0">F4*0.00220462</f>
         <v>0.18959732000000001</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H11" si="1">G4*E4</f>
-        <v>0.75838928000000005</v>
+        <f t="shared" ref="H4:H12" si="1">G4*E4</f>
+        <v>0.37919464000000003</v>
       </c>
       <c r="I4" s="2">
         <v>14.99</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J11" si="2">E4*I4</f>
-        <v>59.96</v>
+        <f t="shared" ref="J4:J12" si="2">E4*I4</f>
+        <v>29.98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,617 +795,616 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>106.3107</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8*0.00220462</f>
+        <v>0.234374695434</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*E8</f>
+        <v>0.46874939086799999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="J8" s="2">
+        <f>E8*I8</f>
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>577</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>1.2720657399999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>1.2720657399999999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>4.3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>266</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>0.58642892000000002</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>1.17285784</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>4.59</v>
       </c>
-      <c r="J9" s="2">
-        <f>E9*I9</f>
+      <c r="J10" s="2">
+        <f>E10*I10</f>
         <v>9.18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>6.6138600000000006E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>0.26455440000000002</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J10" s="2">
-        <f>E10*I10</f>
+      <c r="J11" s="2">
+        <f>E11*I11</f>
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>92</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>0.20282504000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>0.81130016000000005</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="2">
         <v>6.99</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="2"/>
         <v>27.96</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2">
-        <f ca="1">SUM(H3:H14)</f>
-        <v>5.6015866807999997</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <f ca="1">SUM(J3:J14)</f>
-        <v>163.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="H14" s="2">
+        <f>SUM(H3:H12)</f>
+        <v>5.691141431668</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <f>SUM(J3:J12)</f>
+        <v>153.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>243</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.53</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.53</v>
       </c>
-      <c r="I17">
-        <v>2.5</v>
-      </c>
-      <c r="J17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="I18">
+        <v>2.5</v>
+      </c>
+      <c r="J18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>265</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I18">
-        <v>2.5</v>
-      </c>
-      <c r="J18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19">
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+      <c r="J19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>243</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.53</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.53</v>
       </c>
-      <c r="I19">
-        <v>2.5</v>
-      </c>
-      <c r="J19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>228</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.5</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>0.5</v>
       </c>
-      <c r="I20">
-        <v>2.5</v>
-      </c>
-      <c r="J20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="I21">
+        <v>2.5</v>
+      </c>
+      <c r="J21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>243</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>0.53</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>0.53</v>
       </c>
-      <c r="I21">
-        <v>2.5</v>
-      </c>
-      <c r="J21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="I22">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>265</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I22">
-        <v>2.5</v>
-      </c>
-      <c r="J22">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23">
+      <c r="I23">
+        <v>2.5</v>
+      </c>
+      <c r="J23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>243</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0.53</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>0.53</v>
       </c>
-      <c r="I23">
-        <v>2.5</v>
-      </c>
-      <c r="J23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="I24">
+        <v>2.5</v>
+      </c>
+      <c r="J24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>228</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>0.5</v>
       </c>
-      <c r="I24">
-        <v>2.5</v>
-      </c>
-      <c r="J24">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="I25">
+        <v>2.5</v>
+      </c>
+      <c r="J25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>188</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>0.41</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>0.82</v>
       </c>
-      <c r="I25">
-        <v>2.5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>552</v>
-      </c>
-      <c r="G26">
-        <v>1.21</v>
-      </c>
-      <c r="H26">
-        <v>1.21</v>
-      </c>
       <c r="I26">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>322</v>
+        <v>552</v>
       </c>
       <c r="G27">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="H27">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="I27">
         <v>5</v>
       </c>
       <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>322</v>
+      </c>
+      <c r="G28">
+        <v>0.71</v>
+      </c>
+      <c r="H28">
+        <v>1.42</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>180</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>0.4</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>0.4</v>
       </c>
-      <c r="I28">
-        <v>2.5</v>
-      </c>
-      <c r="J28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="I29">
+        <v>2.5</v>
+      </c>
+      <c r="J29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="G29">
-        <v>0.02</v>
-      </c>
-      <c r="H29">
-        <v>0.04</v>
-      </c>
-      <c r="I29">
-        <v>5.99</v>
-      </c>
-      <c r="J29">
-        <v>11.98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>86</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G30">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="H30">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="I30">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="J30">
-        <v>29.98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>7.07</v>
+        <v>86</v>
       </c>
       <c r="G31">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="H31">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
       <c r="I31">
-        <v>4.99</v>
+        <v>14.99</v>
       </c>
       <c r="J31">
-        <v>9.98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>37.200000000000003</v>
+        <v>7.07</v>
       </c>
       <c r="G32">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="H32">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I32">
         <v>4.99</v>
@@ -1413,145 +1415,145 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="G33">
-        <v>7.8E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H33">
-        <v>0.156</v>
+        <v>0.16</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4.99</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34">
-        <v>6.6000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H34">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="I34" t="s">
-        <v>43</v>
+        <v>0.156</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>4.58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>19</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35">
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>26.9</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G37" s="2" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="2">
-        <f>SUM(H17:H35)</f>
+      <c r="H38" s="2">
+        <f>SUM(H18:H36)</f>
         <v>9.2680000000000007</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2">
-        <f>SUM(J17:J35)</f>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <f>SUM(J18:J36)</f>
         <v>113.00000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="H40">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="I40">
-        <v>2.5</v>
-      </c>
-      <c r="J40">
-        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -1563,27 +1565,27 @@
         <v>55</v>
       </c>
       <c r="G41">
-        <v>1.4999999999999999E-2</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H41">
-        <v>1.4999999999999999E-2</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="I41">
         <v>2.5</v>
       </c>
       <c r="J41">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1592,27 +1594,27 @@
         <v>55</v>
       </c>
       <c r="G42">
-        <v>0.436</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H42">
-        <v>0.436</v>
-      </c>
-      <c r="I42" t="s">
-        <v>51</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I42">
+        <v>2.5</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1621,24 +1623,24 @@
         <v>55</v>
       </c>
       <c r="G43">
-        <v>0.58599999999999997</v>
+        <v>0.436</v>
       </c>
       <c r="H43">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="I43">
-        <v>2.5</v>
+        <v>0.436</v>
+      </c>
+      <c r="I43" t="s">
+        <v>51</v>
       </c>
       <c r="J43">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -1650,24 +1652,24 @@
         <v>55</v>
       </c>
       <c r="G44">
-        <v>0.01</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H44">
-        <v>0.01</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="I44">
-        <v>4.99</v>
+        <v>2.5</v>
       </c>
       <c r="J44">
-        <v>4.99</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1679,27 +1681,27 @@
         <v>55</v>
       </c>
       <c r="G45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H45">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I45">
-        <v>5.99</v>
+        <v>4.99</v>
       </c>
       <c r="J45">
-        <v>5.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1708,153 +1710,156 @@
         <v>55</v>
       </c>
       <c r="G46">
-        <v>21</v>
+        <v>0.02</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>0.02</v>
       </c>
       <c r="I46">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="J46">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
       <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <v>14.99</v>
+      </c>
+      <c r="J47">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48">
         <v>7.8E-2</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G49" s="2" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="2">
-        <f>SUM(H40:H47)</f>
+      <c r="H50" s="2">
+        <f>SUM(H41:H48)</f>
         <v>22.87</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2">
-        <f>SUM(J40:J47)</f>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <f>SUM(J41:J48)</f>
         <v>36.72</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52">
-        <v>0.25</v>
-      </c>
-      <c r="H52">
-        <v>0.5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52">
-        <v>15.98</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
       </c>
       <c r="G53">
-        <v>2.36</v>
+        <v>0.25</v>
       </c>
       <c r="H53">
-        <v>2.36</v>
+        <v>0.5</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J53">
-        <v>14.99</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
       </c>
       <c r="G54">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J54">
-        <v>22.98</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>73</v>
       </c>
       <c r="E55">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -1863,7 +1868,7 @@
         <v>1.42</v>
       </c>
       <c r="H55">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
         <v>62</v>
@@ -1874,13 +1879,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="E56">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -1889,7 +1894,7 @@
         <v>1.42</v>
       </c>
       <c r="H56">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="I56" t="s">
         <v>62</v>
@@ -1900,116 +1905,142 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>0.63</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57">
-        <v>7.0000000000000007E-2</v>
+        <v>1.42</v>
       </c>
       <c r="H57">
-        <v>0.27</v>
+        <v>0.89</v>
       </c>
       <c r="I57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J57">
-        <v>5.3</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>55</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="I58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
       </c>
       <c r="G59">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H59">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J59">
-        <v>7.56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
       </c>
       <c r="G60">
+        <v>0.4</v>
+      </c>
+      <c r="H60">
+        <v>1.6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>72</v>
       </c>
-      <c r="J60">
+      <c r="J61">
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G62" s="2" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="2">
-        <f>SUM(H52:H60)</f>
+      <c r="H63" s="2">
+        <f>SUM(H53:H61)</f>
         <v>9.7899999999999991</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2">
-        <f>SUM(J52:J60)</f>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
+        <f>SUM(J53:J61)</f>
         <v>127.31</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B529C-62D1-4DB9-A054-435256B1545A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D5AFA-7554-487A-96BC-ABAF431EA9AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f t="shared" ref="B7:B11" si="3">B6+1</f>
+        <f t="shared" ref="B7" si="3">B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" t="s">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D5AFA-7554-487A-96BC-ABAF431EA9AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EEA6E16D-CB26-40B2-AA86-8EC37AC5DE87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Part Number</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Cost ($)</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Motor_hub</t>
   </si>
   <si>
-    <t>Plexi_floor</t>
-  </si>
-  <si>
     <t>Side_bar</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Varies (steel)</t>
   </si>
   <si>
-    <t>Acrylic</t>
-  </si>
-  <si>
     <t>Sum Weight (lb)</t>
   </si>
   <si>
@@ -127,12 +118,6 @@
     <t>winch35</t>
   </si>
   <si>
-    <t>plexi_ramp</t>
-  </si>
-  <si>
-    <t>plexi_left</t>
-  </si>
-  <si>
     <t>winch_plate</t>
   </si>
   <si>
@@ -202,62 +187,65 @@
     <t>Casters</t>
   </si>
   <si>
-    <t xml:space="preserve">$      7.99 </t>
-  </si>
-  <si>
-    <t>Frame (Aluminum sq tube)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$    14.99 </t>
-  </si>
-  <si>
-    <t>Floor (Plexiglass)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$    22.98 </t>
-  </si>
-  <si>
-    <t>Sides (Plexiglass)</t>
-  </si>
-  <si>
-    <t>Ramp (Plexiglass)</t>
-  </si>
-  <si>
     <t>Corner Brackets</t>
   </si>
   <si>
-    <t xml:space="preserve">$      1.33 </t>
-  </si>
-  <si>
     <t>Caster Mounts</t>
   </si>
   <si>
-    <t xml:space="preserve">$      2.50 </t>
-  </si>
-  <si>
     <t>Hinges</t>
   </si>
   <si>
-    <t xml:space="preserve">$      1.89 </t>
-  </si>
-  <si>
     <t>Screws (#8-32)</t>
   </si>
   <si>
-    <t xml:space="preserve">$      1.59 </t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Omni</t>
+  </si>
+  <si>
+    <t>Steel, Polyurethane</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>Servos</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>HDPE_floor (cm^2)</t>
+  </si>
+  <si>
+    <t>Floor (cm^2)</t>
+  </si>
+  <si>
+    <t>Sides (cm^2)</t>
+  </si>
+  <si>
+    <t>Ramp (cm^2)</t>
+  </si>
+  <si>
+    <t>HDPE_ramp (cm^2)</t>
+  </si>
+  <si>
+    <t>HDPE_left (cm^2)</t>
+  </si>
+  <si>
+    <t>Frame-sq tube (cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +261,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,16 +285,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,26 +625,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.53125" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -605,1443 +653,1621 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>266</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="11">
         <f>F3*0.00220462</f>
         <v>0.58642892000000002</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="11">
         <f>G3*E3</f>
         <v>0.58642892000000002</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="11">
         <v>4.59</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="11">
         <f>E3*I3</f>
         <v>4.59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>86</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="11">
         <f t="shared" ref="G4:G12" si="0">F4*0.00220462</f>
         <v>0.18959732000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H12" si="1">G4*E4</f>
         <v>0.37919464000000003</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="11">
         <v>14.99</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="11">
         <f t="shared" ref="J4:J12" si="2">E4*I4</f>
         <v>29.98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>266</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>0.58642892000000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>0.58642892000000002</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="11">
         <v>4.59</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="11">
         <f t="shared" si="2"/>
         <v>4.59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6">
         <f>B5+1</f>
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>7.07</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>1.5586663400000001E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>6.2346653600000003E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="11">
         <v>4.99</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="11">
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7">
         <f t="shared" ref="B7" si="3">B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>9.89</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
+      <c r="G7" s="11">
+        <f>F7*0.00220462</f>
         <v>2.18036918E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>8.7214767200000001E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="11">
         <v>5.99</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="11">
         <f t="shared" si="2"/>
         <v>23.96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="11">
         <v>106.3107</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="11">
         <f>F8*0.00220462</f>
         <v>0.234374695434</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="11">
         <f>G8*E8</f>
         <v>0.46874939086799999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="11">
         <v>9.99</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="11">
         <f>E8*I8</f>
         <v>19.98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>577</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2720657399999999</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2720657399999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="J9" s="2">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2596.4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H9" s="11">
+        <f>G9*E9</f>
+        <v>1.7058348000000001</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.0091166015665301E-3</v>
+      </c>
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.6200703443073388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>266</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0.58642892000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>1.17285784</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="11">
         <v>4.59</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="11">
         <f>E10*I10</f>
         <v>9.18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>30</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>6.6138600000000006E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>0.26455440000000002</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="11">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="11">
         <f>E11*I11</f>
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>92</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0.20282504000000001</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0.81130016000000005</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="11">
         <v>6.99</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>27.96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2">
+    <row r="13" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f>SUM(H3:H12)</f>
-        <v>5.691141431668</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+        <v>6.1249104916679995</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
         <f>SUM(J3:J12)</f>
-        <v>153.54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>151.86007034430733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>243</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.53</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.53</v>
       </c>
-      <c r="I18">
-        <v>2.5</v>
-      </c>
-      <c r="J18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>265</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I19">
-        <v>2.5</v>
-      </c>
-      <c r="J19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>243</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.53</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.53</v>
       </c>
-      <c r="I20">
-        <v>2.5</v>
-      </c>
-      <c r="J20">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>228</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.5</v>
       </c>
-      <c r="I21">
-        <v>2.5</v>
-      </c>
-      <c r="J21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>243</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.53</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.53</v>
       </c>
-      <c r="I22">
-        <v>2.5</v>
-      </c>
-      <c r="J22">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>265</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I23">
-        <v>2.5</v>
-      </c>
-      <c r="J23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>243</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.53</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.53</v>
       </c>
-      <c r="I24">
-        <v>2.5</v>
-      </c>
-      <c r="J24">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>228</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.5</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.5</v>
       </c>
-      <c r="I25">
-        <v>2.5</v>
-      </c>
-      <c r="J25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>188</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.41</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.82</v>
       </c>
-      <c r="I26">
-        <v>2.5</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J26" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>552</v>
-      </c>
-      <c r="G27">
-        <v>1.21</v>
-      </c>
-      <c r="H27">
-        <v>1.21</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2485</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G27" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H27" s="11">
+        <f>E27*G27</f>
+        <v>1.6326450000000001</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1.0091166015665301E-3</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" ref="J27" si="4">E27*I27</f>
+        <v>2.5076547548928274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>322</v>
-      </c>
-      <c r="G28">
-        <v>0.71</v>
-      </c>
-      <c r="H28">
-        <v>1.42</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1922</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G28" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H28" s="11">
+        <f>E28*G28</f>
+        <v>1.2627540000000002</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.00911660157E-3</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" ref="J28" si="5">E28*I28</f>
+        <v>1.93952210821754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>180</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>0.4</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.4</v>
       </c>
-      <c r="I29">
-        <v>2.5</v>
-      </c>
-      <c r="J29">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>9.8800000000000008</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.02</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>0.04</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>5.99</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>11.98</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>86</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.19</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.38</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>14.99</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>29.98</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>7.07</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.01</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.02</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>4.99</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>9.98</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>0.08</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>0.16</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>4.99</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>9.98</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>35</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>0.156</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>30</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="3">
         <v>4.58</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>26.9</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>0.11799999999999999</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="2">
+    <row r="37" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13">
         <f>SUM(H18:H36)</f>
-        <v>9.2680000000000007</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2">
+        <v>9.5333990000000011</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
         <f>SUM(J18:J36)</f>
-        <v>113.00000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>102.44717686311037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="3">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>0.56899999999999995</v>
       </c>
-      <c r="I41">
-        <v>2.5</v>
-      </c>
-      <c r="J41">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J41" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I42">
-        <v>2.5</v>
-      </c>
-      <c r="J42">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J42" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>0.436</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>0.436</v>
       </c>
-      <c r="I43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="3">
         <v>0.58599999999999997</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>0.58599999999999997</v>
       </c>
-      <c r="I44">
-        <v>2.5</v>
-      </c>
-      <c r="J44">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="3">
         <v>0.01</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>0.01</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <v>4.99</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="7">
         <v>4.99</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="3">
         <v>0.02</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>0.02</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="7">
         <v>5.99</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="7">
         <v>5.99</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47">
-        <v>21</v>
-      </c>
-      <c r="H47">
-        <v>21</v>
-      </c>
-      <c r="I47">
+        <v>49</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I47" s="7">
         <v>14.99</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="7">
         <v>14.99</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3">
         <v>3</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13">
+        <f>SUM(H41:H48)</f>
+        <v>2.25</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13">
+        <f>SUM(J41:J48)</f>
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="J53" s="7">
+        <f>I53*E53</f>
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3">
+        <v>137.41999999999999</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="11">
+        <v>2.3136999999999999</v>
+      </c>
+      <c r="H54" s="11">
+        <v>2.3136999999999999</v>
+      </c>
+      <c r="I54" s="7">
+        <v>8.1965999999999997E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" ref="J54:J60" si="6">I54*E54</f>
+        <v>11.263767719999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2538</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H55" s="11">
+        <v>1.6674660000000001</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1.0091166015665301E-3</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5611379347758536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2411.4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.5842898000000001</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1.0091166015665301E-3</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="6"/>
+        <v>2.4333837730175309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1119.5999999999999</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.73557719999999993</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1.0091166015665301E-3</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="6"/>
+        <v>1.129806947113887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1.325</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="6"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G48">
-        <v>7.8E-2</v>
-      </c>
-      <c r="H48">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="2">
-        <f>SUM(H41:H48)</f>
-        <v>22.87</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2">
-        <f>SUM(J41:J48)</f>
-        <v>36.72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="D60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1.89</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="6"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53">
+      <c r="D61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J61" s="7">
+        <f>I61*E61</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53">
-        <v>0.25</v>
-      </c>
-      <c r="H53">
-        <v>0.5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J53">
-        <v>15.98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54">
-        <v>2.36</v>
-      </c>
-      <c r="H54">
-        <v>2.36</v>
-      </c>
-      <c r="I54" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
+      <c r="F62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>24.99</v>
+      </c>
+      <c r="J62" s="7">
+        <f>I62*E62</f>
+        <v>49.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55">
-        <v>1.4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55">
-        <v>1.42</v>
-      </c>
-      <c r="H55">
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13">
+        <f>SUM(H53:H62)</f>
+        <v>9.8690329999999999</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14">
+        <f>SUM(J53:J62)</f>
+        <v>111.20809637490726</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C65" s="8"/>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
         <v>2</v>
       </c>
-      <c r="I55" t="s">
-        <v>62</v>
-      </c>
-      <c r="J55">
-        <v>22.98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56">
-        <v>0.82</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56">
-        <v>1.42</v>
-      </c>
-      <c r="H56">
-        <v>1.17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>62</v>
-      </c>
-      <c r="J56">
-        <v>22.98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57">
-        <v>0.63</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57">
-        <v>1.42</v>
-      </c>
-      <c r="H57">
-        <v>0.89</v>
-      </c>
-      <c r="I57" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57">
-        <v>22.98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H58">
-        <v>0.27</v>
-      </c>
-      <c r="I58" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59">
-        <v>0.5</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>68</v>
-      </c>
-      <c r="J59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60">
-        <v>0.4</v>
-      </c>
-      <c r="H60">
-        <v>1.6</v>
-      </c>
-      <c r="I60" t="s">
-        <v>70</v>
-      </c>
-      <c r="J60">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J61">
-        <v>9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="2">
-        <f>SUM(H53:H61)</f>
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2">
-        <f>SUM(J53:J61)</f>
-        <v>127.31</v>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="2">
+        <f>H63+H49+H37+H13</f>
+        <v>27.777342491668001</v>
+      </c>
+      <c r="E66" s="10">
+        <f>J63+J49+J37+J13</f>
+        <v>401.98534358232496</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EEA6E16D-CB26-40B2-AA86-8EC37AC5DE87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E14C59-2246-49D2-97F9-83C99DD55C90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
   <si>
     <t>Part Number</t>
   </si>
@@ -236,14 +236,159 @@
   </si>
   <si>
     <t>Frame-sq tube (cm)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -310,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,6 +487,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -625,27 +783,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.53125" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -673,13 +840,41 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -710,8 +905,38 @@
         <f>E3*I3</f>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>266</v>
+      </c>
+      <c r="R3" s="11">
+        <f>Q3*0.00220462</f>
+        <v>0.58642892000000002</v>
+      </c>
+      <c r="S3" s="11">
+        <f>R3*P3</f>
+        <v>0.58642892000000002</v>
+      </c>
+      <c r="T3" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="U3" s="17">
+        <f>P3*T3</f>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -742,8 +967,38 @@
         <f t="shared" ref="J4:J12" si="2">E4*I4</f>
         <v>29.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>86</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R12" si="3">Q4*0.00220462</f>
+        <v>0.18959732000000001</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" ref="S4:S12" si="4">R4*P4</f>
+        <v>0.37919464000000003</v>
+      </c>
+      <c r="T4" s="17">
+        <v>14.99</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" ref="U4:U12" si="5">P4*T4</f>
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -774,8 +1029,38 @@
         <f t="shared" si="2"/>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>266</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="3"/>
+        <v>0.58642892000000002</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.58642892000000002</v>
+      </c>
+      <c r="T5" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="5"/>
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>B5+1</f>
         <v>4</v>
@@ -807,10 +1092,40 @@
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="3"/>
+        <v>1.5586663400000001E-2</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="4"/>
+        <v>6.2346653600000003E-2</v>
+      </c>
+      <c r="T6" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="5"/>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f t="shared" ref="B7" si="3">B6+1</f>
+        <f t="shared" ref="B7" si="6">B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -840,8 +1155,38 @@
         <f t="shared" si="2"/>
         <v>23.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="R7" s="11">
+        <f>Q7*0.00220462</f>
+        <v>2.18036918E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="4"/>
+        <v>8.7214767200000001E-2</v>
+      </c>
+      <c r="T7" s="17">
+        <v>5.99</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" si="5"/>
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -872,8 +1217,38 @@
         <f>E8*I8</f>
         <v>19.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>106.3107</v>
+      </c>
+      <c r="R8" s="11">
+        <f>Q8*0.00220462</f>
+        <v>0.234374695434</v>
+      </c>
+      <c r="S8" s="11">
+        <f>R8*P8</f>
+        <v>0.46874939086799999</v>
+      </c>
+      <c r="T8" s="17">
+        <v>9.99</v>
+      </c>
+      <c r="U8" s="17">
+        <f>P8*T8</f>
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -884,7 +1259,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="3">
-        <v>2596.4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
         <v>0.28999999999999998</v>
@@ -894,17 +1269,46 @@
       </c>
       <c r="H9" s="11">
         <f>G9*E9</f>
-        <v>1.7058348000000001</v>
+        <v>6.5700000000000003E-4</v>
       </c>
       <c r="I9" s="11">
-        <v>1.0091166015665301E-3</v>
+        <v>2.62</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" si="2"/>
-        <v>2.6200703443073388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <f>E9*I9</f>
+        <v>2.62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R9" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S9" s="11">
+        <f>R9*P9</f>
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="T9" s="17">
+        <v>2.62</v>
+      </c>
+      <c r="U9" s="17">
+        <f>P9*T9</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -935,8 +1339,38 @@
         <f>E10*I10</f>
         <v>9.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>266</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" ref="R10:R18" si="7">Q10*0.00220462</f>
+        <v>0.58642892000000002</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" ref="S10:S18" si="8">R10*P10</f>
+        <v>1.17285784</v>
+      </c>
+      <c r="T10" s="17">
+        <v>4.59</v>
+      </c>
+      <c r="U10" s="17">
+        <f>P10*T10</f>
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -967,8 +1401,38 @@
         <f>E11*I11</f>
         <v>9.0399999999999991</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>30</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="7"/>
+        <v>6.6138600000000006E-2</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="8"/>
+        <v>0.26455440000000002</v>
+      </c>
+      <c r="T11" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="U11" s="17">
+        <f>P11*T11</f>
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
@@ -999,8 +1463,38 @@
         <f t="shared" si="2"/>
         <v>27.96</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>92</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="7"/>
+        <v>0.20282504000000001</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="8"/>
+        <v>0.81130016000000005</v>
+      </c>
+      <c r="T12" s="17">
+        <v>6.99</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" ref="U12:U20" si="9">P12*T12</f>
+        <v>27.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1010,39 +1504,147 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13">
         <f>SUM(H3:H12)</f>
-        <v>6.1249104916679995</v>
+        <v>4.4197326916680009</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13">
         <f>SUM(J3:J12)</f>
-        <v>151.86007034430733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>151.86000000000001</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>243</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="T13" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U13" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>265</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>243</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="T15" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>228</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U16" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1052,8 +1654,36 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L17" s="1"/>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>243</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="T17" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U17" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1081,8 +1711,35 @@
       <c r="J18" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>265</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T18" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U18" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1110,8 +1767,35 @@
       <c r="J19" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>243</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="T19" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U19" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1139,8 +1823,35 @@
       <c r="J20" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>228</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U20" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>4</v>
       </c>
@@ -1168,8 +1879,35 @@
       <c r="J21" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>188</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="T21" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U21" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5</v>
       </c>
@@ -1197,8 +1935,37 @@
       <c r="J22" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R22" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S22" s="11">
+        <f>P22*R22</f>
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="T22" s="17">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="U22" s="17">
+        <f t="shared" ref="U22:U23" si="10">P22*T22</f>
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>6</v>
       </c>
@@ -1226,8 +1993,37 @@
       <c r="J23" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R23" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S23" s="11">
+        <f>P23*R23</f>
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="T23" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="10"/>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>7</v>
       </c>
@@ -1255,8 +2051,35 @@
       <c r="J24" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>180</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T24" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="U24" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>8</v>
       </c>
@@ -1284,8 +2107,35 @@
       <c r="J25" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M25" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="T25" s="17">
+        <v>5.99</v>
+      </c>
+      <c r="U25" s="17">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>9</v>
       </c>
@@ -1313,8 +2163,35 @@
       <c r="J26" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>86</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="T26" s="17">
+        <v>14.99</v>
+      </c>
+      <c r="U26" s="17">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>10</v>
       </c>
@@ -1341,11 +2218,38 @@
         <v>1.0091166015665301E-3</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" ref="J27" si="4">E27*I27</f>
+        <f t="shared" ref="J27" si="11">E27*I27</f>
         <v>2.5076547548928274</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="T27" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="U27" s="17">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>11</v>
       </c>
@@ -1372,11 +2276,38 @@
         <v>1.00911660157E-3</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="5">E28*I28</f>
+        <f t="shared" ref="J28" si="12">E28*I28</f>
         <v>1.93952210821754</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="T28" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="U28" s="17">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>12</v>
       </c>
@@ -1404,8 +2335,35 @@
       <c r="J29" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M29" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>35</v>
+      </c>
+      <c r="R29" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="T29" s="17">
+        <v>1</v>
+      </c>
+      <c r="U29" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>13</v>
       </c>
@@ -1433,8 +2391,35 @@
       <c r="J30" s="3">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M30" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U30" s="17">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>14</v>
       </c>
@@ -1462,8 +2447,35 @@
       <c r="J31" s="3">
         <v>29.98</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="R31" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T31" s="17">
+        <v>1</v>
+      </c>
+      <c r="U31" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>15</v>
       </c>
@@ -1491,8 +2503,35 @@
       <c r="J32" s="3">
         <v>9.98</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M32" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="T32" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="U32" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>16</v>
       </c>
@@ -1520,8 +2559,35 @@
       <c r="J33" s="3">
         <v>9.98</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T33" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="U33" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>17</v>
       </c>
@@ -1549,8 +2615,35 @@
       <c r="J34" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M34" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="T34" s="18">
+        <v>0</v>
+      </c>
+      <c r="U34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>18</v>
       </c>
@@ -1578,8 +2671,35 @@
       <c r="J35" s="3">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M35" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="T35" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="U35" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>19</v>
       </c>
@@ -1607,8 +2727,35 @@
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="M36" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="T36" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="U36" s="18">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1625,24 +2772,105 @@
         <f>SUM(J18:J36)</f>
         <v>102.44717686311037</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M37" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="T37" s="18">
+        <v>5.99</v>
+      </c>
+      <c r="U37" s="18">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="T38" s="18">
+        <v>14.99</v>
+      </c>
+      <c r="U38" s="18">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="T39" s="18">
+        <v>1</v>
+      </c>
+      <c r="U39" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1652,8 +2880,37 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L40" s="1"/>
+      <c r="M40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="T40" s="18">
+        <v>7.99</v>
+      </c>
+      <c r="U40" s="18">
+        <f>T40*P40</f>
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -1681,8 +2938,36 @@
       <c r="J41" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="3">
+        <v>137.41999999999999</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" s="11">
+        <v>2.3136999999999999</v>
+      </c>
+      <c r="S41" s="11">
+        <v>2.3136999999999999</v>
+      </c>
+      <c r="T41" s="18">
+        <v>8.1965999999999997E-2</v>
+      </c>
+      <c r="U41" s="18">
+        <f t="shared" ref="U41:U47" si="13">T41*P41</f>
+        <v>11.263767719999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2</v>
       </c>
@@ -1710,8 +2995,36 @@
       <c r="J42" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M42" t="s">
+        <v>109</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S42" s="11">
+        <v>1.6674660000000001</v>
+      </c>
+      <c r="T42" s="18">
+        <v>1.28</v>
+      </c>
+      <c r="U42" s="18">
+        <f t="shared" si="13"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>3</v>
       </c>
@@ -1739,8 +3052,36 @@
       <c r="J43" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S43" s="4">
+        <v>1.5842898000000001</v>
+      </c>
+      <c r="T43" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="U43" s="18">
+        <f t="shared" si="13"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>4</v>
       </c>
@@ -1768,8 +3109,36 @@
       <c r="J44" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M44" t="s">
+        <v>110</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R44" s="11">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0.73557719999999993</v>
+      </c>
+      <c r="T44" s="18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U44" s="18">
+        <f t="shared" si="13"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>5</v>
       </c>
@@ -1797,8 +3166,36 @@
       <c r="J45" s="7">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R45" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="T45" s="18">
+        <v>1.325</v>
+      </c>
+      <c r="U45" s="18">
+        <f t="shared" si="13"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>6</v>
       </c>
@@ -1826,8 +3223,36 @@
       <c r="J46" s="7">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M46" t="s">
+        <v>112</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S46" s="11">
+        <v>1</v>
+      </c>
+      <c r="T46" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="U46" s="18">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>7</v>
       </c>
@@ -1855,8 +3280,36 @@
       <c r="J47" s="7">
         <v>14.99</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M47" t="s">
+        <v>113</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="T47" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="U47" s="18">
+        <f t="shared" si="13"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>8</v>
       </c>
@@ -1884,8 +3337,36 @@
       <c r="J48" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="M48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="U48" s="18">
+        <f>T48*P48</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C49" s="6" t="s">
         <v>20</v>
       </c>
@@ -1902,24 +3383,64 @@
         <f>SUM(J41:J48)</f>
         <v>36.47</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M49" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="T49" s="18">
+        <v>0</v>
+      </c>
+      <c r="U49" s="18">
+        <f>T49*P49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="11"/>
       <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1929,8 +3450,25 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L52" s="1"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S52" s="11">
+        <f>SUM(S3:S49)</f>
+        <v>23.178736691668011</v>
+      </c>
+      <c r="T52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" s="17">
+        <f>SUM(U3:U49)</f>
+        <v>353.85376772000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -1960,7 +3498,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2</v>
       </c>
@@ -1986,11 +3524,11 @@
         <v>8.1965999999999997E-2</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" ref="J54:J60" si="6">I54*E54</f>
+        <f t="shared" ref="J54:J60" si="14">I54*E54</f>
         <v>11.263767719999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>3</v>
       </c>
@@ -2016,11 +3554,11 @@
         <v>1.0091166015665301E-3</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2.5611379347758536</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>4</v>
       </c>
@@ -2046,11 +3584,11 @@
         <v>1.0091166015665301E-3</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2.4333837730175309</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>5</v>
       </c>
@@ -2076,11 +3614,11 @@
         <v>1.0091166015665301E-3</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.129806947113887</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>6</v>
       </c>
@@ -2106,11 +3644,11 @@
         <v>1.325</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>7</v>
       </c>
@@ -2136,11 +3674,11 @@
         <v>2.5</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>8</v>
       </c>
@@ -2166,11 +3704,11 @@
         <v>1.89</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>7.56</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>9</v>
       </c>
@@ -2200,7 +3738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>10</v>
       </c>
@@ -2230,7 +3768,7 @@
         <v>49.98</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C63" s="9" t="s">
         <v>61</v>
       </c>
@@ -2247,8 +3785,16 @@
         <f>SUM(J53:J62)</f>
         <v>111.20809637490726</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="18"/>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C65" s="8"/>
       <c r="D65" t="s">
         <v>6</v>
@@ -2256,19 +3802,23 @@
       <c r="E65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C66" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D66" s="2">
         <f>H63+H49+H37+H13</f>
-        <v>27.777342491668001</v>
+        <v>26.072164691668</v>
       </c>
       <c r="E66" s="10">
         <f>J63+J49+J37+J13</f>
-        <v>401.98534358232496</v>
-      </c>
+        <v>401.98527323801761</v>
+      </c>
+      <c r="N66" s="8"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
